--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46D372-016B-4D6B-BD0C-C9EDD3CDB9C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A06874-644E-417F-8981-98400FC45CA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>Wdir</t>
   </si>
@@ -118,6 +121,18 @@
   </si>
   <si>
     <t>Altitude (ft)</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -151,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +230,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,445 +549,2373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43018D-51EB-42A5-BC8B-E633C6789199}">
-  <dimension ref="A2:S19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>280</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>70</v>
-      </c>
-      <c r="F4" s="3">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H4" s="4">
-        <f>F4-G4</f>
-        <v>35</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4-DEGREES(ASIN((D4/E4)*SIN(3.1415 + RADIANS(C4-H4))))</f>
-        <v>27.561209706191853</v>
-      </c>
-      <c r="J4" s="7">
-        <f>I4+G4</f>
-        <v>14.561209706191853</v>
-      </c>
-      <c r="K4" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="L4" s="8">
-        <f>SQRT(POWER(E4,2)+POWER(D4,2)-2*E4*D4*COS(RADIANS(I4-C4)))</f>
-        <v>73.637044288248987</v>
-      </c>
-      <c r="M4" s="6">
-        <f>K4/L4</f>
-        <v>0.10049289826236132</v>
-      </c>
-      <c r="N4" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="O4" s="6">
-        <f>M4*N4</f>
-        <v>0.96473182331866869</v>
-      </c>
-      <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>325</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>102</v>
-      </c>
-      <c r="F5" s="3">
-        <v>338</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-13</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H6" si="0">F5-G5</f>
-        <v>351</v>
+        <f>F5-G5</f>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <f>H5-DEGREES(ASIN((D5/E5)*SIN(3.1415 + RADIANS(C5-H5))))</f>
-        <v>348.28979859870907</v>
+        <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J6" si="1">I5+G5</f>
-        <v>335.28979859870907</v>
-      </c>
-      <c r="K5" s="5">
-        <v>7.7</v>
-      </c>
-      <c r="L5" s="8">
+        <f>I5+G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
         <f>SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
-        <v>91.999175630884892</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" ref="M5:M6" si="2">K5/L5</f>
-        <v>8.3696402138358356E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" ref="O5:O6" si="3">M5*N5</f>
-        <v>0.52728733347165757</v>
-      </c>
-      <c r="Q5" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>IF(M5=0,0,L5/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="6">
+        <f>N5*O5</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>320</v>
-      </c>
-      <c r="D6" s="3">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3">
-        <v>333</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-13</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>346</v>
+        <f t="shared" ref="H6:H16" si="0">F6-G6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f>H6-DEGREES(ASIN((D6/E6)*SIN(3.1415 + RADIANS(C6-H6))))</f>
-        <v>340.96922080257633</v>
+        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>327.96922080257633</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="8">
+        <f>I6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8">
         <f>SQRT(POWER(E6,2)+POWER(D6,2)-2*E6*D6*COS(RADIANS(I6-C6)))</f>
-        <v>57.147224773947507</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="2"/>
-        <v>8.7493312576036389E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5512078692290292</v>
-      </c>
-      <c r="Q6" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N16" si="2">IF(M6=0,0,L6/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6">
+        <f t="shared" ref="P6:P16" si="3">N6*O6</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>I7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8">
+        <f>SQRT(POWER(E7,2)+POWER(D7,2)-2*E7*D7*COS(RADIANS(I7-C7)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8">
+        <f>SQRT(POWER(E8,2)+POWER(D8,2)-2*E8*D8*COS(RADIANS(I8-C8)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>I9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8">
+        <f>SQRT(POWER(E9,2)+POWER(D9,2)-2*E9*D9*COS(RADIANS(I9-C9)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>I10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <f>SQRT(POWER(E10,2)+POWER(D10,2)-2*E10*D10*COS(RADIANS(I10-C10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>I11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8">
+        <f>SQRT(POWER(E11,2)+POWER(D11,2)-2*E11*D11*COS(RADIANS(I11-C11)))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>I12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8">
+        <f>SQRT(POWER(E12,2)+POWER(D12,2)-2*E12*D12*COS(RADIANS(I12-C12)))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8">
+        <f>SQRT(POWER(E13,2)+POWER(D13,2)-2*E13*D13*COS(RADIANS(I13-C13)))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>I14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8">
+        <f>SQRT(POWER(E14,2)+POWER(D14,2)-2*E14*D14*COS(RADIANS(I14-C14)))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L19" s="14" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>I15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8">
+        <f>SQRT(POWER(E15,2)+POWER(D15,2)-2*E15*D15*COS(RADIANS(I15-C15)))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8">
+        <f>SQRT(POWER(E16,2)+POWER(D16,2)-2*E16*D16*COS(RADIANS(I16-C16)))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="2">
-        <f>SUM(M4:M15)*60</f>
-        <v>16.300956778605364</v>
-      </c>
-      <c r="N19" s="13" t="s">
+      <c r="N20" s="2">
+        <f>SUM(N5:N16)*60</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="2">
-        <f>SUM(O4:O15)</f>
-        <v>2.0432270260193555</v>
+      <c r="P20" s="2">
+        <f>SUM(P5:P16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C210EF1-2D3A-41A4-BB6A-4E97A0B05626}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>I5+G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
+        <f>SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>IF(M5=0,0,L5/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="6">
+        <f>N5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H16" si="0">F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>I6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8">
+        <f>SQRT(POWER(E6,2)+POWER(D6,2)-2*E6*D6*COS(RADIANS(I6-C6)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N16" si="2">IF(M6=0,0,L6/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6">
+        <f t="shared" ref="P6:P16" si="3">N6*O6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>I7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8">
+        <f>SQRT(POWER(E7,2)+POWER(D7,2)-2*E7*D7*COS(RADIANS(I7-C7)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8">
+        <f>SQRT(POWER(E8,2)+POWER(D8,2)-2*E8*D8*COS(RADIANS(I8-C8)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>I9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8">
+        <f>SQRT(POWER(E9,2)+POWER(D9,2)-2*E9*D9*COS(RADIANS(I9-C9)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>I10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <f>SQRT(POWER(E10,2)+POWER(D10,2)-2*E10*D10*COS(RADIANS(I10-C10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>I11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8">
+        <f>SQRT(POWER(E11,2)+POWER(D11,2)-2*E11*D11*COS(RADIANS(I11-C11)))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>I12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8">
+        <f>SQRT(POWER(E12,2)+POWER(D12,2)-2*E12*D12*COS(RADIANS(I12-C12)))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8">
+        <f>SQRT(POWER(E13,2)+POWER(D13,2)-2*E13*D13*COS(RADIANS(I13-C13)))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>I14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8">
+        <f>SQRT(POWER(E14,2)+POWER(D14,2)-2*E14*D14*COS(RADIANS(I14-C14)))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>I15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8">
+        <f>SQRT(POWER(E15,2)+POWER(D15,2)-2*E15*D15*COS(RADIANS(I15-C15)))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8">
+        <f>SQRT(POWER(E16,2)+POWER(D16,2)-2*E16*D16*COS(RADIANS(I16-C16)))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2">
+        <f>SUM(N5:N16)*60</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="2">
+        <f>SUM(P5:P16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A91EF-E965-4D85-8A9F-EE228F3452E6}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>I5+G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
+        <f>SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>IF(M5=0,0,L5/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="6">
+        <f>N5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H16" si="0">F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>I6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8">
+        <f>SQRT(POWER(E6,2)+POWER(D6,2)-2*E6*D6*COS(RADIANS(I6-C6)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N16" si="2">IF(M6=0,0,L6/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6">
+        <f t="shared" ref="P6:P16" si="3">N6*O6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>I7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8">
+        <f>SQRT(POWER(E7,2)+POWER(D7,2)-2*E7*D7*COS(RADIANS(I7-C7)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8">
+        <f>SQRT(POWER(E8,2)+POWER(D8,2)-2*E8*D8*COS(RADIANS(I8-C8)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>I9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8">
+        <f>SQRT(POWER(E9,2)+POWER(D9,2)-2*E9*D9*COS(RADIANS(I9-C9)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>I10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <f>SQRT(POWER(E10,2)+POWER(D10,2)-2*E10*D10*COS(RADIANS(I10-C10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>I11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8">
+        <f>SQRT(POWER(E11,2)+POWER(D11,2)-2*E11*D11*COS(RADIANS(I11-C11)))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>I12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8">
+        <f>SQRT(POWER(E12,2)+POWER(D12,2)-2*E12*D12*COS(RADIANS(I12-C12)))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8">
+        <f>SQRT(POWER(E13,2)+POWER(D13,2)-2*E13*D13*COS(RADIANS(I13-C13)))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>I14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8">
+        <f>SQRT(POWER(E14,2)+POWER(D14,2)-2*E14*D14*COS(RADIANS(I14-C14)))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>I15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8">
+        <f>SQRT(POWER(E15,2)+POWER(D15,2)-2*E15*D15*COS(RADIANS(I15-C15)))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8">
+        <f>SQRT(POWER(E16,2)+POWER(D16,2)-2*E16*D16*COS(RADIANS(I16-C16)))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2">
+        <f>SUM(N5:N16)*60</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="2">
+        <f>SUM(P5:P16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD0B63C-AAA4-4F9A-925B-0F0496106021}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>I5+G5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8">
+        <f>SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>IF(M5=0,0,L5/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="6">
+        <f>N5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H16" si="0">F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>I6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="8">
+        <f>SQRT(POWER(E6,2)+POWER(D6,2)-2*E6*D6*COS(RADIANS(I6-C6)))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N16" si="2">IF(M6=0,0,L6/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6">
+        <f t="shared" ref="P6:P16" si="3">N6*O6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>I7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8">
+        <f>SQRT(POWER(E7,2)+POWER(D7,2)-2*E7*D7*COS(RADIANS(I7-C7)))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>I8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8">
+        <f>SQRT(POWER(E8,2)+POWER(D8,2)-2*E8*D8*COS(RADIANS(I8-C8)))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>I9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8">
+        <f>SQRT(POWER(E9,2)+POWER(D9,2)-2*E9*D9*COS(RADIANS(I9-C9)))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>I10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <f>SQRT(POWER(E10,2)+POWER(D10,2)-2*E10*D10*COS(RADIANS(I10-C10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>I11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8">
+        <f>SQRT(POWER(E11,2)+POWER(D11,2)-2*E11*D11*COS(RADIANS(I11-C11)))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>I12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8">
+        <f>SQRT(POWER(E12,2)+POWER(D12,2)-2*E12*D12*COS(RADIANS(I12-C12)))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8">
+        <f>SQRT(POWER(E13,2)+POWER(D13,2)-2*E13*D13*COS(RADIANS(I13-C13)))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>I14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8">
+        <f>SQRT(POWER(E14,2)+POWER(D14,2)-2*E14*D14*COS(RADIANS(I14-C14)))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>I15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8">
+        <f>SQRT(POWER(E15,2)+POWER(D15,2)-2*E15*D15*COS(RADIANS(I15-C15)))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8">
+        <f>SQRT(POWER(E16,2)+POWER(D16,2)-2*E16*D16*COS(RADIANS(I16-C16)))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2">
+        <f>SUM(N5:N16)*60</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="2">
+        <f>SUM(P5:P16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA784DD-0B00-4F37-9A4A-56CF182D37F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452EE703-1464-46AC-9202-EA736FA19404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,21 +271,87 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,40 +698,40 @@
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="M3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="P3" s="27" t="s">
+      <c r="N3" s="27"/>
+      <c r="P3" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -714,39 +787,39 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <f t="shared" ref="J5:J16" si="0">I5+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22">
         <f t="shared" ref="M5:M16" si="1">SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f>IF(M5=0,0,L5/M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="25">
+      <c r="O5" s="19"/>
+      <c r="P5" s="23">
         <f>N5*O5</f>
         <v>0</v>
       </c>
@@ -796,39 +869,39 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="25">
+      <c r="O7" s="19"/>
+      <c r="P7" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -875,39 +948,39 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="25">
+      <c r="O9" s="19"/>
+      <c r="P9" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -951,39 +1024,39 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="25">
+      <c r="O11" s="19"/>
+      <c r="P11" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1027,39 +1100,39 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="25">
+      <c r="O13" s="19"/>
+      <c r="P13" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1103,39 +1176,39 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="25">
+      <c r="O15" s="19"/>
+      <c r="P15" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1179,10 +1252,10 @@
       </c>
     </row>
     <row r="20" spans="12:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="20"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="17">
         <f>SUM(N5:N16)*60</f>
         <v>0</v>
@@ -1217,7 +1290,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,132 +1312,132 @@
     <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="P3" s="27" t="s">
+      <c r="N3" s="47"/>
+      <c r="P3" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="42" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="29">
         <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="29">
         <f t="shared" ref="J5:J16" si="0">I5+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24">
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31">
         <f t="shared" ref="M5:M16" si="1">SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="32">
         <f>IF(M5=0,0,L5/M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="25">
+      <c r="O5" s="28"/>
+      <c r="P5" s="32">
         <f>N5*O5</f>
         <v>0</v>
       </c>
@@ -1372,40 +1445,40 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34">
         <f t="shared" ref="H6:H16" si="2">F6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="35">
         <f t="shared" ref="I6:I16" si="3">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
         <f t="shared" ref="N6:N16" si="4">IF(M6=0,0,L6/M6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="16">
+      <c r="O6" s="33"/>
+      <c r="P6" s="39">
         <f t="shared" ref="P6:P16" si="5">N6*O6</f>
         <v>0</v>
       </c>
@@ -1413,40 +1486,40 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="J7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="25">
+      <c r="O7" s="28"/>
+      <c r="P7" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1454,372 +1527,373 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="16">
+      <c r="O8" s="33"/>
+      <c r="P8" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="J9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="25">
+      <c r="O9" s="28"/>
+      <c r="P9" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="J10" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="16">
+      <c r="O10" s="33"/>
+      <c r="P10" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="J11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="25">
+      <c r="O11" s="28"/>
+      <c r="P11" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="16">
+      <c r="O12" s="33"/>
+      <c r="P12" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="J13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="25">
+      <c r="O13" s="28"/>
+      <c r="P13" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="16">
+      <c r="O14" s="33"/>
+      <c r="P14" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="25">
+      <c r="J15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="25">
+      <c r="O15" s="28"/>
+      <c r="P15" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
+      <c r="J16" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="16">
+      <c r="O16" s="33"/>
+      <c r="P16" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="12:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="20" t="s">
+    <row r="17" spans="12:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="17">
+      <c r="M17" s="40"/>
+      <c r="N17" s="41">
         <f>SUM(N5:N16)*60</f>
         <v>0</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P17" s="41">
         <f>SUM(P5:P16)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="12:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="landscape" r:id="rId1"/>

--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65241CB-9B03-40B5-81A0-05E0DA66FC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657870C1-6FCD-4617-BB4D-18CBD2FDDC13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Wdir</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Calculated</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>ATIS</t>
+  </si>
+  <si>
+    <t>Twr</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>Approach</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="12:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="27" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1253,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="12:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:M1"/>

--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657870C1-6FCD-4617-BB4D-18CBD2FDDC13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4F9F8-BAAD-4FF4-8879-F44A35913606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,9 +283,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -293,9 +290,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +319,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -333,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,91 +674,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="M3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="P3" s="23" t="s">
+      <c r="N3" s="25"/>
+      <c r="P3" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="3"/>
@@ -782,7 +776,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
-        <f>F5-G5</f>
+        <f>MOD(360+F5-G5,360)</f>
         <v>0</v>
       </c>
       <c r="I5" s="6">
@@ -790,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J16" si="0">I5+G5</f>
+        <f>MOD(360+I5+G5,360)</f>
         <v>0</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M16" si="1">SQRT(POWER(E5,2)+POWER(D5,2)-2*E5*D5*COS(RADIANS(I5-C5)))</f>
+        <f>SQRT( MAX( POWER(E5,2) + POWER(D5,2) - 2*E5*D5*COS(RADIANS(I5-C5) ), 0) )</f>
         <v>0</v>
       </c>
       <c r="N5" s="9">
@@ -822,30 +816,30 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11">
-        <f t="shared" ref="H6:H16" si="2">F6-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" ref="I6:I16" si="3">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H16" si="0">MOD(360+F6-G6,360)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J16" si="2">MOD(360+I6+G6,360)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M16" si="3">SQRT( MAX( POWER(E6,2) + POWER(D6,2) - 2*E6*D6*COS(RADIANS(I6-C6) ), 0) )</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
         <f t="shared" ref="N6:N16" si="4">IF(M6=0,0,L6/M6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P16" si="5">N6*O6</f>
         <v>0</v>
       </c>
@@ -864,21 +858,21 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="9">
@@ -904,30 +898,30 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11">
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -943,21 +937,21 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="9">
@@ -980,30 +974,30 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11">
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="N10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1019,21 +1013,21 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
@@ -1056,30 +1050,30 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11">
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="N12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1095,21 +1089,21 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
@@ -1132,30 +1126,30 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11">
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
+      <c r="N14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1171,21 +1165,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="9">
@@ -1208,152 +1202,152 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11">
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="12">
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
+      <c r="N16" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="17">
+      <c r="M17" s="26"/>
+      <c r="N17" s="15">
         <f>SUM(N5:N16)*60</f>
         <v>0</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="15">
         <f>SUM(P5:P16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4F9F8-BAAD-4FF4-8879-F44A35913606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99745718-ADB3-47F0-8E93-291371634DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Wdir</t>
   </si>
@@ -81,9 +81,6 @@
     <t>GS (kts)</t>
   </si>
   <si>
-    <t>ETE (hrs)</t>
-  </si>
-  <si>
     <t>Magnetic Var</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>Approach</t>
+  </si>
+  <si>
+    <t>ETE (min)</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>ATA</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,9 +304,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +339,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,716 +678,751 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="B1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="2:23" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="2:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:20" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="24" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="N3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="S3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="M3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="P3" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <f>MOD(360+F5-G5,360)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <f>IF(E5=0,0,MOD(360 + H5 - DEGREES(ASIN((D5/E5)*SIN( 3.1415 + RADIANS(C5-H5)))), 360))</f>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <f>MOD(360+G5-H5,360)</f>
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <f>MOD(360+I5+G5,360)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8">
-        <f>SQRT( MAX( POWER(E5,2) + POWER(D5,2) - 2*E5*D5*COS(RADIANS(I5-C5) ), 0) )</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <f>IF(M5=0,0,L5/M5)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="9">
-        <f>N5*O5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10"/>
+        <f>IF(F5=0,0,MOD(360 + I5 - DEGREES(ASIN((E5/F5)*SIN( 3.1415 + RADIANS(D5-I5)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>MOD(360+J5+H5,360)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8">
+        <f>SQRT( MAX( POWER(F5,2) + POWER(E5,2) - 2*F5*E5*COS(RADIANS(J5-D5) ), 0) )</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <f>IF(N5=0,0,M5*60/N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="9">
+        <f>O5*R5/60</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:H16" si="0">MOD(360+F6-G6,360)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" ref="I6:I16" si="1">IF(E6=0,0,MOD(360 + H6 - DEGREES(ASIN((D6/E6)*SIN( 3.1415 + RADIANS(C6-H6)))), 360))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" ref="J6:J16" si="2">MOD(360+I6+G6,360)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="8">
-        <f t="shared" ref="M6:M16" si="3">SQRT( MAX( POWER(E6,2) + POWER(D6,2) - 2*E6*D6*COS(RADIANS(I6-C6) ), 0) )</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" ref="N6:N16" si="4">IF(M6=0,0,L6/M6)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="14">
-        <f t="shared" ref="P6:P16" si="5">N6*O6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="26">
+        <f t="shared" ref="I6:I16" si="0">MOD(360+G6-H6,360)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ref="J6:J16" si="1">IF(F6=0,0,MOD(360 + I6 - DEGREES(ASIN((E6/F6)*SIN( 3.1415 + RADIANS(D6-I6)))), 360))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" ref="K6:K16" si="2">MOD(360+J6+H6,360)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="28">
+        <f t="shared" ref="N6:N16" si="3">SQRT( MAX( POWER(F6,2) + POWER(E6,2) - 2*F6*E6*COS(RADIANS(J6-D6) ), 0) )</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" ref="O6:O16" si="4">IF(N6=0,0,M6*60/N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="29">
+        <f t="shared" ref="S6:S16" si="5">O6*R6/60</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="9">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="5">
+      <c r="H8" s="10"/>
+      <c r="I8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8">
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="14">
+      <c r="O8" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="14">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8">
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="9">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10"/>
+    <row r="10" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="5">
+      <c r="H10" s="10"/>
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="8">
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="14">
+      <c r="O10" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="14">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8">
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="9">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="5">
+      <c r="H12" s="10"/>
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="8">
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="14">
+      <c r="O12" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="14">
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8">
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="9">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="5">
+      <c r="H14" s="10"/>
+      <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="8">
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="14">
+      <c r="O14" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="14">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8">
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="9">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="5">
+      <c r="H16" s="10"/>
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="8">
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="14">
+      <c r="O16" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="14">
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="15">
-        <f>SUM(N5:N16)*60</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="15">
-        <f>SUM(P5:P16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+    <row r="17" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="14">
+        <f>SUM(O5:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="14">
+        <f>SUM(S5:S16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="G31" s="23"/>
+    </row>
+    <row r="20" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99745718-ADB3-47F0-8E93-291371634DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20716125-EDCC-413F-AFB3-3C0FA660F996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Wdir</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>ATA</t>
+  </si>
+  <si>
+    <t>Fuel for taxi and takeoff (gal)</t>
+  </si>
+  <si>
+    <t>Reserve fuel (gal)</t>
+  </si>
+  <si>
+    <t>Grand total fuel (gal)</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Steer</t>
+  </si>
+  <si>
+    <t>Compass Corrections</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,9 +316,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -314,9 +329,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +343,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -340,25 +373,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +718,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W31"/>
+  <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,99 +745,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="2:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="S3" s="20" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="S3" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="3"/>
@@ -826,7 +867,10 @@
         <f>MOD(360+J5+H5,360)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <f ca="1">IF($M$22="",0,FORECAST(K5,OFFSET($N$22:$N$33,MATCH(K5,$M$22:$M$33,1)-1,0,2),OFFSET($M$22:$M$33,MATCH(K5,$M$22:$M$33,1)-1,0,2)))</f>
+        <v>0</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="8">
         <f>SQRT( MAX( POWER(F5,2) + POWER(E5,2) - 2*F5*E5*COS(RADIANS(J5-D5) ), 0) )</f>
@@ -857,7 +901,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="26">
+      <c r="I6" s="21">
         <f t="shared" ref="I6:I16" si="0">MOD(360+G6-H6,360)</f>
         <v>0</v>
       </c>
@@ -865,25 +909,28 @@
         <f t="shared" ref="J6:J16" si="1">IF(F6=0,0,MOD(360 + I6 - DEGREES(ASIN((E6/F6)*SIN( 3.1415 + RADIANS(D6-I6)))), 360))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="22">
         <f t="shared" ref="K6:K16" si="2">MOD(360+J6+H6,360)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="28">
-        <f t="shared" ref="N6:N16" si="3">SQRT( MAX( POWER(F6,2) + POWER(E6,2) - 2*F6*E6*COS(RADIANS(J6-D6) ), 0) )</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="29">
-        <f t="shared" ref="O6:O16" si="4">IF(N6=0,0,M6*60/N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="L6" s="22">
+        <f t="shared" ref="L6:L16" ca="1" si="3">IF($M$22="",0,FORECAST(K6,OFFSET($N$22:$N$33,MATCH(K6,$M$22:$M$33,1)-1,0,2),OFFSET($M$22:$M$33,MATCH(K6,$M$22:$M$33,1)-1,0,2)))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="23">
+        <f t="shared" ref="N6:N16" si="4">SQRT( MAX( POWER(F6,2) + POWER(E6,2) - 2*F6*E6*COS(RADIANS(J6-D6) ), 0) )</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" ref="O6:O16" si="5">IF(N6=0,0,M6*60/N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="29">
-        <f t="shared" ref="S6:S16" si="5">O6*R6/60</f>
+      <c r="S6" s="24">
+        <f t="shared" ref="S6:S16" si="6">O6*R6/60</f>
         <v>0</v>
       </c>
       <c r="U6" s="3"/>
@@ -912,21 +959,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="5"/>
       <c r="S7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U7" s="3"/>
@@ -943,7 +993,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="26">
+      <c r="I8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -951,25 +1001,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="29">
+      <c r="L8" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="O8" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="29">
-        <f t="shared" si="5"/>
+      <c r="S8" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -995,21 +1048,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="5"/>
       <c r="S9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1079,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="26">
+      <c r="I10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1031,25 +1087,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="29">
+      <c r="L10" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="O10" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="29">
-        <f t="shared" si="5"/>
+      <c r="S10" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1075,21 +1134,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="5"/>
       <c r="S11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1103,7 +1165,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="26">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1111,25 +1173,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
+      <c r="L12" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="O12" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="29">
-        <f t="shared" si="5"/>
+      <c r="S12" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="5"/>
       <c r="S13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1251,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="26">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1191,25 +1259,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="29">
+      <c r="L14" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="O14" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="29">
-        <f t="shared" si="5"/>
+      <c r="S14" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1235,21 +1306,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="5"/>
       <c r="S15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1337,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="26">
+      <c r="I16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1271,158 +1345,225 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="29">
+      <c r="L16" s="22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="O16" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="29">
-        <f t="shared" si="5"/>
+      <c r="S16" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="14">
+      <c r="N17" s="30"/>
+      <c r="O17" s="13">
         <f>SUM(O5:O16)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <f>SUM(S5:S16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="16" t="s">
+    <row r="18" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="35"/>
+    </row>
+    <row r="19" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="35"/>
+    </row>
+    <row r="20" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="P20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="34">
+        <f>S17+S18+S19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="H31" s="22"/>
+      <c r="M21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FlightPlanAssistant.xlsx
+++ b/FlightPlanAssistant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasrinivas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samvrit\Desktop\Flight-Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20716125-EDCC-413F-AFB3-3C0FA660F996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35DF871-EB35-4E09-B353-DA36B39A988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A637C3E-B514-4914-90DF-A4E1D310F362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Wdir</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Compass Corrections</t>
+  </si>
+  <si>
+    <t>&lt;- This will be auto-filled. Only for interpolation purposes</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -289,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -319,9 +330,6 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -364,41 +372,48 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W33"/>
+  <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,112 +748,113 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="2:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="S3" s="18" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="S3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="3"/>
@@ -868,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <f ca="1">IF($M$22="",0,FORECAST(K5,OFFSET($N$22:$N$33,MATCH(K5,$M$22:$M$33,1)-1,0,2),OFFSET($M$22:$M$33,MATCH(K5,$M$22:$M$33,1)-1,0,2)))</f>
+        <f ca="1">IF($N$22="",0,MOD(360+FORECAST(K5,OFFSET($N$22:$N$34,MATCH(K5,$M$22:$M$34,1)-1,0,2),OFFSET($M$22:$M$34,MATCH(K5,$M$22:$M$34,1)-1,0,2)),360))</f>
         <v>0</v>
       </c>
       <c r="M5" s="7"/>
@@ -901,7 +917,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <f t="shared" ref="I6:I16" si="0">MOD(360+G6-H6,360)</f>
         <v>0</v>
       </c>
@@ -909,27 +925,27 @@
         <f t="shared" ref="J6:J16" si="1">IF(F6=0,0,MOD(360 + I6 - DEGREES(ASIN((E6/F6)*SIN( 3.1415 + RADIANS(D6-I6)))), 360))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <f t="shared" ref="K6:K16" si="2">MOD(360+J6+H6,360)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="22">
-        <f t="shared" ref="L6:L16" ca="1" si="3">IF($M$22="",0,FORECAST(K6,OFFSET($N$22:$N$33,MATCH(K6,$M$22:$M$33,1)-1,0,2),OFFSET($M$22:$M$33,MATCH(K6,$M$22:$M$33,1)-1,0,2)))</f>
+      <c r="L6" s="21">
+        <f t="shared" ref="L6:L16" ca="1" si="3">IF($N$22="",0,MOD(360+FORECAST(K6,OFFSET($N$22:$N$34,MATCH(K6,$M$22:$M$34,1)-1,0,2),OFFSET($M$22:$M$34,MATCH(K6,$M$22:$M$34,1)-1,0,2)),360))</f>
         <v>0</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <f t="shared" ref="N6:N16" si="4">SQRT( MAX( POWER(F6,2) + POWER(E6,2) - 2*F6*E6*COS(RADIANS(J6-D6) ), 0) )</f>
         <v>0</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <f t="shared" ref="O6:O16" si="5">IF(N6=0,0,M6*60/N6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="24">
+      <c r="S6" s="23">
         <f t="shared" ref="S6:S16" si="6">O6*R6/60</f>
         <v>0</v>
       </c>
@@ -993,7 +1009,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1001,27 +1017,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="12"/>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1079,7 +1095,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1087,27 +1103,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="12"/>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="24">
+      <c r="S10" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1165,7 +1181,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1173,27 +1189,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="12"/>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="24">
+      <c r="S12" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1251,7 +1267,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1259,27 +1275,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="23">
+      <c r="N14" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="24">
+      <c r="S14" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1337,7 +1353,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1345,225 +1361,261 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="12"/>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="24">
+      <c r="S16" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="13">
+      <c r="N17" s="40"/>
+      <c r="O17" s="41">
         <f>SUM(O5:O16)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14" t="s">
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="41">
         <f>SUM(S5:S16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="35"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="35"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="3:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M20" s="36" t="s">
         <v>45</v>
       </c>
       <c r="N20" s="36"/>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="34">
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="27">
         <f>S17+S18+S19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="M22" s="31">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="M23" s="31">
+        <v>30</v>
+      </c>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="M24" s="31">
+        <v>60</v>
+      </c>
+      <c r="N24" s="31"/>
     </row>
     <row r="25" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="M25" s="31">
+        <v>90</v>
+      </c>
+      <c r="N25" s="31"/>
     </row>
     <row r="26" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="M26" s="31">
+        <v>120</v>
+      </c>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="M27" s="31">
+        <v>150</v>
+      </c>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="M28" s="31">
+        <v>180</v>
+      </c>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="M29" s="31">
+        <v>210</v>
+      </c>
+      <c r="N29" s="31"/>
     </row>
     <row r="30" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="M30" s="31">
+        <v>240</v>
+      </c>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-    </row>
-    <row r="33" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="M31" s="31">
+        <v>270</v>
+      </c>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="3:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="M32" s="31">
+        <v>300</v>
+      </c>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="3:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="M33" s="4">
+        <v>330</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="3:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="39">
+        <v>360</v>
+      </c>
+      <c r="N34" s="39" t="str">
+        <f>IF(N22="","",360+N22)</f>
+        <v/>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="43" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>